--- a/src/test/java/resources/Superone2.xlsx
+++ b/src/test/java/resources/Superone2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UserTree" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PlayerDetails" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PlayerDetails" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UserTree" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -35,22 +35,13 @@
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">max6913@y.com</t>
+    <t xml:space="preserve">max6913</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t xml:space="preserve">max6913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6926@y.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">max6926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6927@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">max6927</t>
@@ -171,13 +162,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -201,45 +215,45 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max6913@y.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="max6926@y.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="max6927@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="max6913"/>
+    <hyperlink ref="A3" r:id="rId2" display="max6926"/>
+    <hyperlink ref="A4" r:id="rId3" display="max6927"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -249,27 +263,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/test/java/resources/Superone2.xlsx
+++ b/src/test/java/resources/Superone2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">max6927</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -162,14 +165,335 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
